--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_Vietcom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200414</t>
+  </si>
+  <si>
+    <t>Khách ktra lại hạn DV thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180907</t>
   </si>
 </sst>
 </file>
@@ -461,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,9 +680,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1028,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,43 +1060,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1117,58 +1141,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1193,23 +1217,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,7 +1285,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1318,7 +1342,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1399,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1454,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1440,26 +1464,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183035915912</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1469,26 +1521,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183034801238</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1498,26 +1578,56 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="B12" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183035927537</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1529,26 +1639,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183035873822</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1558,26 +1696,56 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="B14" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>867857039982323</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1587,26 +1755,52 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183038471244</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1616,26 +1810,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183034634431</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1645,23 +1865,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>867857039938910</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="54"/>
@@ -1672,23 +1920,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="37">
+        <v>44544</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44545</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>867827039934794</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -1754,7 +2030,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2223,7 +2499,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2287,7 +2563,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2927,43 +3203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3008,58 +3284,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3084,23 +3360,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3126,7 +3402,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3157,7 +3433,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3186,7 +3462,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3491,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3244,7 +3520,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3549,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3302,7 +3578,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3333,7 +3609,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3638,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3667,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3696,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
